--- a/AlarmReportWeb/dataview/outputs/performance_summary.xlsx
+++ b/AlarmReportWeb/dataview/outputs/performance_summary.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,163 +547,163 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44624</v>
+        <v>44621</v>
       </c>
       <c r="B3" t="n">
-        <v>0.261</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="D3" t="n">
-        <v>0.154</v>
+        <v>0.534</v>
       </c>
       <c r="E3" t="n">
-        <v>0.969</v>
+        <v>0.595</v>
       </c>
       <c r="F3" t="n">
-        <v>0.854</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.784</v>
+        <v>0.845</v>
       </c>
       <c r="H3" t="n">
-        <v>0.323</v>
+        <v>0.71</v>
       </c>
       <c r="I3" t="n">
-        <v>0.653</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>0.679</v>
+        <v>0.779</v>
       </c>
       <c r="K3" t="n">
-        <v>0.995</v>
+        <v>0.893</v>
       </c>
       <c r="L3" t="n">
-        <v>0.349</v>
+        <v>0.115</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44627</v>
+        <v>44622</v>
       </c>
       <c r="B4" t="n">
-        <v>0.36</v>
+        <v>0.125</v>
       </c>
       <c r="C4" t="n">
-        <v>0.164</v>
+        <v>0.226</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.555</v>
+        <v>0.695</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06</v>
+        <v>0.827</v>
       </c>
       <c r="G4" t="n">
-        <v>0.541</v>
+        <v>0.828</v>
       </c>
       <c r="H4" t="n">
-        <v>0.586</v>
+        <v>0.501</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.796</v>
       </c>
       <c r="J4" t="n">
-        <v>0.462</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.743</v>
+        <v>0.655</v>
       </c>
       <c r="L4" t="n">
-        <v>0.34</v>
+        <v>0.23</v>
       </c>
       <c r="M4" t="n">
-        <v>0.375</v>
+        <v>0.604</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44630</v>
+        <v>44623</v>
       </c>
       <c r="B5" t="n">
-        <v>0.114</v>
+        <v>0.033</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.537</v>
+        <v>0.005</v>
       </c>
       <c r="E5" t="n">
-        <v>0.89</v>
+        <v>0.895</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.784</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.803</v>
       </c>
       <c r="H5" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.793</v>
       </c>
-      <c r="I5" t="n">
-        <v>0.791</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.742</v>
-      </c>
       <c r="K5" t="n">
-        <v>0.995</v>
+        <v>0.967</v>
       </c>
       <c r="L5" t="n">
-        <v>0.115</v>
+        <v>0.337</v>
       </c>
       <c r="M5" t="n">
-        <v>0.614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44642</v>
+        <v>44624</v>
       </c>
       <c r="B6" t="n">
-        <v>0.204</v>
+        <v>0.261</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.154</v>
       </c>
       <c r="E6" t="n">
-        <v>0.97</v>
+        <v>0.969</v>
       </c>
       <c r="F6" t="n">
-        <v>0.628</v>
+        <v>0.854</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.784</v>
       </c>
       <c r="H6" t="n">
-        <v>0.734</v>
+        <v>0.323</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.653</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.679</v>
       </c>
       <c r="K6" t="n">
-        <v>0.988</v>
+        <v>0.995</v>
       </c>
       <c r="L6" t="n">
-        <v>0.205</v>
+        <v>0.349</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -711,42 +711,329 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
+        <v>44625</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44626</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44628</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.659</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.983</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.636</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.869</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.647</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.537</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.791</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.742</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.614</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.734</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>44649</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B14" t="n">
         <v>0.15</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.99</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F14" t="n">
         <v>0.906</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.657</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.984</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L14" t="n">
         <v>0.25</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M14" t="n">
         <v>0</v>
       </c>
     </row>

--- a/AlarmReportWeb/dataview/outputs/performance_summary.xlsx
+++ b/AlarmReportWeb/dataview/outputs/performance_summary.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1037,6 +1037,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>44654</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9330000000000001</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.839</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/AlarmReportWeb/dataview/outputs/performance_summary.xlsx
+++ b/AlarmReportWeb/dataview/outputs/performance_summary.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -998,40 +998,40 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44649</v>
+        <v>44647</v>
       </c>
       <c r="B14" t="n">
-        <v>0.15</v>
+        <v>0.119</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.99</v>
+        <v>0.861</v>
       </c>
       <c r="F14" t="n">
-        <v>0.906</v>
+        <v>0.294</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.312</v>
       </c>
       <c r="H14" t="n">
-        <v>0.657</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.265</v>
       </c>
       <c r="K14" t="n">
-        <v>0.984</v>
+        <v>0.02</v>
       </c>
       <c r="L14" t="n">
-        <v>0.25</v>
+        <v>0.299</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1039,42 +1039,247 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>44649</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>44654</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B16" t="n">
         <v>0.143</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C16" t="n">
         <v>0.001</v>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.9330000000000001</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F16" t="n">
         <v>0.839</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G16" t="n">
         <v>0.802</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>0.833</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I16" t="n">
         <v>0.505</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J16" t="n">
         <v>0.793</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K16" t="n">
         <v>0.985</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L16" t="n">
         <v>0.174</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>44658</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44660</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44661</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="M20" t="n">
         <v>0</v>
       </c>
     </row>

--- a/AlarmReportWeb/dataview/outputs/performance_summary.xlsx
+++ b/AlarmReportWeb/dataview/outputs/performance_summary.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1080,40 +1080,40 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44654</v>
+        <v>44652</v>
       </c>
       <c r="B16" t="n">
-        <v>0.143</v>
+        <v>0.06</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.054</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.981</v>
       </c>
       <c r="F16" t="n">
-        <v>0.839</v>
+        <v>0.367</v>
       </c>
       <c r="G16" t="n">
-        <v>0.802</v>
+        <v>0.868</v>
       </c>
       <c r="H16" t="n">
-        <v>0.833</v>
+        <v>0.739</v>
       </c>
       <c r="I16" t="n">
-        <v>0.505</v>
+        <v>0.26</v>
       </c>
       <c r="J16" t="n">
-        <v>0.793</v>
+        <v>0.832</v>
       </c>
       <c r="K16" t="n">
-        <v>0.985</v>
+        <v>0.982</v>
       </c>
       <c r="L16" t="n">
-        <v>0.174</v>
+        <v>0.278</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1121,10 +1121,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44658</v>
+        <v>44653</v>
       </c>
       <c r="B17" t="n">
-        <v>0.08599999999999999</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1133,28 +1133,28 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.981</v>
+        <v>0.927</v>
       </c>
       <c r="F17" t="n">
-        <v>0.518</v>
+        <v>0.247</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.506</v>
       </c>
       <c r="H17" t="n">
-        <v>0.833</v>
+        <v>0.797</v>
       </c>
       <c r="I17" t="n">
-        <v>0.127</v>
+        <v>0.068</v>
       </c>
       <c r="J17" t="n">
-        <v>0.728</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.985</v>
+        <v>0.98</v>
       </c>
       <c r="L17" t="n">
-        <v>0.413</v>
+        <v>0.305</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1162,40 +1162,40 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44659</v>
+        <v>44654</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.222</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.613</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>0.711</v>
+        <v>0.839</v>
       </c>
       <c r="G18" t="n">
-        <v>0.647</v>
+        <v>0.802</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.833</v>
       </c>
       <c r="I18" t="n">
-        <v>0.623</v>
+        <v>0.505</v>
       </c>
       <c r="J18" t="n">
-        <v>0.709</v>
+        <v>0.793</v>
       </c>
       <c r="K18" t="n">
-        <v>0.979</v>
+        <v>0.985</v>
       </c>
       <c r="L18" t="n">
-        <v>0.325</v>
+        <v>0.174</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1203,10 +1203,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44660</v>
+        <v>44655</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1215,28 +1215,28 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.048</v>
+        <v>0.96</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.952</v>
       </c>
       <c r="G19" t="n">
-        <v>0.044</v>
+        <v>0.747</v>
       </c>
       <c r="H19" t="n">
-        <v>0.434</v>
+        <v>0.777</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.537</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.806</v>
       </c>
       <c r="K19" t="n">
-        <v>0.63</v>
+        <v>0.931</v>
       </c>
       <c r="L19" t="n">
-        <v>0.333</v>
+        <v>0.181</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1244,42 +1244,493 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.719</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44658</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44660</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>44661</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B25" t="n">
         <v>0.08799999999999999</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C25" t="n">
         <v>0.001</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
         <v>0.318</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F25" t="n">
         <v>0.293</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G25" t="n">
         <v>0.255</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H25" t="n">
         <v>0.226</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I25" t="n">
         <v>0.301</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J25" t="n">
         <v>0.277</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K25" t="n">
         <v>0.308</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L25" t="n">
         <v>0.295</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44663</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44666</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.696</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44667</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.969</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.547</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.239</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44668</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.983</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="M31" t="n">
         <v>0</v>
       </c>
     </row>

--- a/AlarmReportWeb/dataview/outputs/performance_summary.xlsx
+++ b/AlarmReportWeb/dataview/outputs/performance_summary.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1734,6 +1734,170 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44669</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>44670</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.884</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.612</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.827</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>44672</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.734</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.962</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/AlarmReportWeb/dataview/outputs/performance_summary.xlsx
+++ b/AlarmReportWeb/dataview/outputs/performance_summary.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1898,6 +1898,2220 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>44673</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.822</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>44674</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.969</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>44675</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.597</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.618</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>44677</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.649</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.958</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.821</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.649</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44679</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.863</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.645</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.969</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.082</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44681</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44683</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.873</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.593</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44684</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.641</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.871</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.643</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44686</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.622</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44687</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.871</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.777</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.587</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44688</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44689</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.605</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.719</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.828</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44692</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44693</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.819</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44695</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.797</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44696</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.756</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.698</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>44698</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.609</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.9330000000000001</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.821</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.595</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>44700</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.851</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.644</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>44701</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.819</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.854</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.512</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>44702</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.698</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.849</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>44703</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.769</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>44705</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.696</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.868</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.858</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.726</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.869</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>44707</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.983</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.732</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>44709</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.547</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>44710</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>44711</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.8110000000000001</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.822</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.946</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.699</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.681</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>44716</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>44717</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>44719</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.554</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.733</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.851</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>44721</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.702</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>44723</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.637</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.637</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.734</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>44724</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.696</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>44726</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.872</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.868</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.639</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
